--- a/REVER_DailyTracker_20200826.xlsx
+++ b/REVER_DailyTracker_20200826.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\August\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842230F5-4796-481C-84FD-411473719568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA278C-5DE1-4316-9B87-169AA9E9B3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>Task</t>
   </si>
@@ -487,6 +481,24 @@
   </si>
   <si>
     <t>2. Customization of the RPSI task has been completed, tested and it is success</t>
+  </si>
+  <si>
+    <t>Hayaai APP</t>
+  </si>
+  <si>
+    <t>CreditInfo</t>
+  </si>
+  <si>
+    <t>Move the cursor latest file</t>
+  </si>
+  <si>
+    <t>Working in Signup</t>
+  </si>
+  <si>
+    <t>Unable to handle the cursor tried so many options</t>
+  </si>
+  <si>
+    <t>Still some tables are not updated</t>
   </si>
 </sst>
 </file>
@@ -598,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -637,6 +649,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,7 +967,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
@@ -2228,8 +2241,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,20 +2282,36 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0.3</v>
+      </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/REVER_DailyTracker_20200826.xlsx
+++ b/REVER_DailyTracker_20200826.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\August\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842230F5-4796-481C-84FD-411473719568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA5E521-9006-4D44-83C0-5739C7CA6B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="136">
   <si>
     <t>Task</t>
   </si>
@@ -487,6 +481,12 @@
   </si>
   <si>
     <t>2. Customization of the RPSI task has been completed, tested and it is success</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix, Vastu Master Log</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +517,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -595,10 +617,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -637,9 +662,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{8A799F18-6BF7-4358-A6EA-C20428E44EA2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,22 +987,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1023,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1000,8 +1033,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1024,10 +1057,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1041,9 +1074,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1057,9 +1090,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1073,8 +1106,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1091,19 +1124,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1121,13 +1154,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1141,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1171,12 +1204,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1217,12 +1250,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1244,12 +1277,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1281,12 +1314,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1294,7 +1327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1318,12 +1351,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1339,7 +1372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1363,12 +1396,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1376,7 +1409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1384,7 +1417,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1408,12 +1441,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1454,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1469,12 +1502,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1490,12 +1523,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1503,22 +1536,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1550,12 +1583,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1596,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1579,17 +1612,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1605,17 +1638,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1623,12 +1656,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1636,27 +1669,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1664,12 +1697,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1677,7 +1710,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1685,12 +1718,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1698,7 +1731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1706,12 +1739,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1719,7 +1752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1727,7 +1760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1735,17 +1768,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1753,12 +1786,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1774,12 +1807,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1787,17 +1820,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1805,7 +1838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1813,12 +1846,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1826,7 +1859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1834,7 +1867,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1842,7 +1875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1850,12 +1883,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1863,12 +1896,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1876,7 +1909,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
@@ -1896,18 +1929,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1939,7 +1972,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1948,46 +1981,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2004,22 +2037,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2042,16 +2075,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44069</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2060,46 +2101,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2120,18 +2161,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2163,7 +2204,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2172,46 +2213,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2232,18 +2273,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2266,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2275,7 +2316,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2284,46 +2325,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2344,18 +2385,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2399,7 +2440,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2408,46 +2449,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2468,18 +2509,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2511,7 +2552,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2520,46 +2561,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2580,18 +2621,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2623,7 +2664,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2632,46 +2673,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2692,18 +2733,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2735,7 +2776,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2744,46 +2785,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2804,18 +2845,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2838,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2847,7 +2888,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2856,46 +2897,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
